--- a/medicine/Enfance/Doumbi_Fakoly/Doumbi_Fakoly.xlsx
+++ b/medicine/Enfance/Doumbi_Fakoly/Doumbi_Fakoly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doumbi Fakoly  (ou Doumbi-Fakoly) est un écrivain malien, né en 1944 à Kati.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doumbi Fakoly est né le 1er janvier 1944 à Kati[1]. Il a grandi au Sénégal puis fait des études supérieures en France. Diplôme en poche, un D.E.S. de banque, il retourne au Mali. En 1983 de retour en France, il écrit son premier roman Mort pour la France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doumbi Fakoly est né le 1er janvier 1944 à Kati. Il a grandi au Sénégal puis fait des études supérieures en France. Diplôme en poche, un D.E.S. de banque, il retourne au Mali. En 1983 de retour en France, il écrit son premier roman Mort pour la France.
 Il est l'auteur de littérature de jeunesse. Son œuvre, des romans et des essais, traite de faits de société comme le sida, la religion, le racisme, etc.
-Il vit en France, est marié et a deux enfants[2].
-Doumbi Fakoly préconise pour les Noirs une rupture avec les religions abrahamiques pour adhérer au kémitisme. Il croit également que les Juifs auraient été métissés avec les populations Noires d'Égypte antique, ce qui les aurait menés à persécuter les populations noires[3].
-Il anime régulièrement des ateliers et des conférences sur la spiritualité africaine[4], [5].
+Il vit en France, est marié et a deux enfants.
+Doumbi Fakoly préconise pour les Noirs une rupture avec les religions abrahamiques pour adhérer au kémitisme. Il croit également que les Juifs auraient été métissés avec les populations Noires d'Égypte antique, ce qui les aurait menés à persécuter les populations noires.
+Il anime régulièrement des ateliers et des conférences sur la spiritualité africaine, .
 </t>
         </is>
       </c>
@@ -548,44 +562,117 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans et essais
-1983 : Morts pour la France, éditions Menaibuc[6]
-1984 : La Retraite anticipée du Guide Suprême, éditions l’Harmattan[2]
-1988 : Certificat de Contrôle Anti-Sida, éditions Publisud[2]
-1994 : La Révolte des Galsénésiennes, éditions Publisud, Paris[2]
-1997 : Le Guide du Panafricaniste - éditions Nouvelles du Sud, Paris[2]
-2000 : Afrique, la Renaissance - éditions Publisud, Paris[2]
-2003 : Pour une ligue des peuples noirs[7], éditions L'Harmattan
+          <t>Romans et essais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1983 : Morts pour la France, éditions Menaibuc
+1984 : La Retraite anticipée du Guide Suprême, éditions l’Harmattan
+1988 : Certificat de Contrôle Anti-Sida, éditions Publisud
+1994 : La Révolte des Galsénésiennes, éditions Publisud, Paris
+1997 : Le Guide du Panafricaniste - éditions Nouvelles du Sud, Paris
+2000 : Afrique, la Renaissance - éditions Publisud, Paris
+2003 : Pour une ligue des peuples noirs, éditions L'Harmattan
 2006 : La Colonisation, l’autre crime contre l’humanité, éditions Menaibuc, Paris  (ISBN 2911372891)
-2006 : Le Mali sous Amadou Toumani Touré[7]  (ISBN 2353490107)
-2007 : Complot contre la jeunesse africaine[7], , éditions Menaibuc, Paris.
+2006 : Le Mali sous Amadou Toumani Touré  (ISBN 2353490107)
+2007 : Complot contre la jeunesse africaine, , éditions Menaibuc, Paris.
 2010 : Le Mali 50 ans après (Récit historique) - Editions Menaibuc. Paris.
 2013 : Le Mali sous Amadou Toumani Touré (acte 2) - Editions Menaibuc
 2014 : Le Mali sous Ibrahima Boubacar Keita, un an après, la nation toujours trahie - Ed. Menaibuc
-2015 : Le Mali sous Ibrahima Keita, après erreur sur la personne, y a-t-il quelqu'un pour sauver le Mali ? Editions Menaibuc
-Littérature d'enfance et de jeunesse
-1991 : Aventure à Ottawa[2]
-1992 : Bilal le prophète[2]
-1999 : Un mariage forcé - éditions CEDA, Abidjan[2]
+2015 : Le Mali sous Ibrahima Keita, après erreur sur la personne, y a-t-il quelqu'un pour sauver le Mali ? Editions Menaibuc</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Doumbi_Fakoly</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doumbi_Fakoly</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1991 : Aventure à Ottawa
+1992 : Bilal le prophète
+1999 : Un mariage forcé - éditions CEDA, Abidjan
 2003 : À la conquête de la fontaine magique, L’Harmattan, Paris,  (ISBN 2-7475-4058-8)
 2005 : Fakoly Prince du Mande, 2005, L'Harmattan, Paris  (ISBN 2747547418)
-2005 : Anta, grand prêtre d'Atum, éditions Menaibuc, Paris[7]  (ISBN 2911372662)
-2006 : Cheikh Anta Diop [8]texte.  (ISBN 2911372980)
+2005 : Anta, grand prêtre d'Atum, éditions Menaibuc, Paris  (ISBN 2911372662)
+2006 : Cheikh Anta Diop texte.  (ISBN 2911372980)
 2006 : Mali-Sadio, l’hippopotame de Bafulabé (récit historique), éditions Menaibuc, Paris  (ISBN 2911372859)
 2009 : Marcus Garvey expliqué aux adolescents, éditions Menaibuc, Paris  (ISBN 2353491022)
 2010 : Une veillée au village ; contes du Mali  ,éditions Menaibuc, Paris   (ISBN 9782296375673) en ligne
 2018 : Etats-Unis de Kamita Meri, An 6254 - Editions Menaibuc
 2019 : Quelques grands traîtres de Kamita - Maat Kem Editions
-2019 : Comment sauver Kamita de ses traîtres - Maat Kem Editions
-Religion et spiritualité
-2004 : L'Origine négro-africaine des religions dites révélées, éditions Menaibuc, Paris  (ISBN 2911372514)
-2005 : L’Origine biblique du racisme anti-Noir, éditions Menaibuc, Paris[7]  (ISBN 2911372794)
+2019 : Comment sauver Kamita de ses traîtres - Maat Kem Editions</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doumbi_Fakoly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Doumbi_Fakoly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Religion et spiritualité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2004 : L'Origine négro-africaine des religions dites révélées, éditions Menaibuc, Paris  (ISBN 2911372514)
+2005 : L’Origine biblique du racisme anti-Noir, éditions Menaibuc, Paris  (ISBN 2911372794)
 2005 : Introduction à la prière négro-africaine, Éditions Menaibuc, Paris  (ISBN 2911372808)
 2008 : Les Chemins de La Maât, éditions Menaibuc, Paris    (ISBN 978-2-353-49032-5)
 2008 : Ces Dieux et ces égrégores étrangers qui tuent le peuple noir, éditions Menaibuc, Paris    (ISBN 2353490409)
 2008 : La Bible en procès, éditions Menaibuc, Paris    (ISBN 2353490832)
-2009 : Horus, fils d'Isis,  Éditions Menaibuc, Paris[7]  (ISBN 2911372999)
-2009 : L'Islam est-il une religion pour les noirs[9], éditions Menaibuc.  (ISBN 9782353491124)
+2009 : Horus, fils d'Isis,  Éditions Menaibuc, Paris  (ISBN 2911372999)
+2009 : L'Islam est-il une religion pour les noirs, éditions Menaibuc.  (ISBN 9782353491124)
 2010 : Le Tarot divinatoire kamite - Editions Menaibuc Paris
 2014 : Medu Neter, Paroles du Créateur Amon- Râ - Editions Menaibuc
 2014 : Panafricanisme et Spiritualité négro- africaine, l'indispensable connexion - Editions Menaibuc
